--- a/Pokemons.xlsx
+++ b/Pokemons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\UPM\Actual\IngLinguistica\P3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4A6332-E197-4BDD-B298-7A5F3A20D399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E24835-325C-46F6-97FB-6B15FAD3316D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,9 +39,6 @@
     <t>Pokemon</t>
   </si>
   <si>
-    <t>N Pokedex</t>
-  </si>
-  <si>
     <t>Escupe fuego tan caliente que funde las rocas. Causa incendios forestales sin querer.</t>
   </si>
   <si>
@@ -78,27 +75,15 @@
     <t>Poder solar</t>
   </si>
   <si>
-    <t>Habilidad Oculta</t>
-  </si>
-  <si>
-    <t>Generación</t>
-  </si>
-  <si>
     <t>Habitat</t>
   </si>
   <si>
     <t>Montaña</t>
   </si>
   <si>
-    <t>Cadena Evolutiva</t>
-  </si>
-  <si>
     <t>Charmander, Charmeleon, Charizard</t>
   </si>
   <si>
-    <t>Obtención</t>
-  </si>
-  <si>
     <t>Evolucionar de Charmeleon (nivel 36)</t>
   </si>
   <si>
@@ -108,9 +93,6 @@
     <t>Ataque ala, Envite ígneo, Onda ígnea, Garra dragón, Garra umbría, Tajo aéreo, Arañazo, Gruñido, Ascuas, Malicioso, Pantalla de humo, Garra metal, Furia dragón, Furia, Cara susto, Colmillo ígneo, Pirotecnia, Cuchillada, Lanzallamas, Giro fuego, Infierno</t>
   </si>
   <si>
-    <t>Ratio de Captura</t>
-  </si>
-  <si>
     <t>Página Web</t>
   </si>
   <si>
@@ -214,6 +196,24 @@
   </si>
   <si>
     <t>Agua, Eléctrico, Roca</t>
+  </si>
+  <si>
+    <t>N_Pokedex</t>
+  </si>
+  <si>
+    <t>Habilidad_Oculta</t>
+  </si>
+  <si>
+    <t>Generacion</t>
+  </si>
+  <si>
+    <t>Cadena_Evolutiva</t>
+  </si>
+  <si>
+    <t>Obtencion</t>
+  </si>
+  <si>
+    <t>Ratio_de_Captura</t>
   </si>
 </sst>
 </file>
@@ -266,11 +266,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -557,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,52 +584,52 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -638,52 +637,52 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
       <c r="H2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="4">
+        <v>19</v>
+      </c>
+      <c r="O2" s="3">
         <v>45</v>
       </c>
       <c r="P2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -691,52 +690,52 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="N3" t="s">
         <v>33</v>
       </c>
-      <c r="J3" t="s">
+      <c r="O3" s="3">
+        <v>190</v>
+      </c>
+      <c r="P3" t="s">
         <v>34</v>
       </c>
-      <c r="K3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O3" s="4">
-        <v>190</v>
-      </c>
-      <c r="P3" t="s">
-        <v>40</v>
-      </c>
       <c r="Q3" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -744,52 +743,52 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" t="s">
         <v>41</v>
       </c>
-      <c r="E4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="N4" t="s">
         <v>42</v>
       </c>
-      <c r="G4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="O4" s="3">
+        <v>3</v>
+      </c>
+      <c r="P4" t="s">
         <v>46</v>
       </c>
-      <c r="L4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="Q4" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="N4" t="s">
-        <v>48</v>
-      </c>
-      <c r="O4" s="4">
-        <v>3</v>
-      </c>
-      <c r="P4" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
